--- a/listatemas.xlsx
+++ b/listatemas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanespejo/Documents/reveal/meditaciones/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424614B7-3275-4C47-84FE-92176EEB5D72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9C007C-BACC-B04C-8DC5-FA19931E63BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="63">
   <si>
     <t>Fecha</t>
   </si>
@@ -205,6 +205,21 @@
   </si>
   <si>
     <t>Anti-cartesianismo</t>
+  </si>
+  <si>
+    <t>Valhery</t>
+  </si>
+  <si>
+    <t>Carolina</t>
+  </si>
+  <si>
+    <t>Ángela</t>
+  </si>
+  <si>
+    <t>Natalia</t>
+  </si>
+  <si>
+    <t>Camilo</t>
   </si>
 </sst>
 </file>
@@ -212,7 +227,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="[$-240A]dddd\ d&quot; de &quot;mmmm&quot; de &quot;yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-240A]dddd\ d&quot; de &quot;mmmm&quot; de &quot;yyyy;@"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -721,7 +736,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1087,7 +1102,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:M28"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1171,7 +1186,9 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="H4" s="2"/>
       <c r="N4" s="3"/>
     </row>
@@ -1188,7 +1205,9 @@
       <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="H5" s="2"/>
       <c r="N5" s="4"/>
     </row>
@@ -1205,7 +1224,9 @@
       <c r="D6" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="N6" s="3"/>
     </row>
@@ -1222,7 +1243,9 @@
       <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:14">
@@ -1238,7 +1261,9 @@
       <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="H8" s="2"/>
       <c r="N8" s="3"/>
     </row>

--- a/listatemas.xlsx
+++ b/listatemas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanespejo/Documents/reveal/meditaciones/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9C007C-BACC-B04C-8DC5-FA19931E63BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15D7570-00DB-F040-B8B7-0A7029314687}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="65">
   <si>
     <t>Fecha</t>
   </si>
@@ -220,6 +220,12 @@
   </si>
   <si>
     <t>Camilo</t>
+  </si>
+  <si>
+    <t>Sofía</t>
+  </si>
+  <si>
+    <t>Katherin</t>
   </si>
 </sst>
 </file>
@@ -1102,7 +1108,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1280,7 +1286,9 @@
       <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="H9" s="2"/>
       <c r="N9" s="3"/>
     </row>
@@ -1297,7 +1305,9 @@
       <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="N10" s="4"/>
     </row>

--- a/listatemas.xlsx
+++ b/listatemas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanespejo/Documents/reveal/meditaciones/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15D7570-00DB-F040-B8B7-0A7029314687}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6850FDCD-36AD-144C-BD87-1730899BAAC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="66">
   <si>
     <t>Fecha</t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>Katherin</t>
+  </si>
+  <si>
+    <t>Sergio</t>
   </si>
 </sst>
 </file>
@@ -1108,7 +1111,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1341,7 +1344,9 @@
       <c r="D12" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:14">

--- a/listatemas.xlsx
+++ b/listatemas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanespejo/Documents/reveal/meditaciones/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6850FDCD-36AD-144C-BD87-1730899BAAC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C147066F-D4FF-4246-83C6-A619A48D5101}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="67">
   <si>
     <t>Fecha</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>Sergio</t>
+  </si>
+  <si>
+    <t>JCES</t>
   </si>
 </sst>
 </file>
@@ -1111,7 +1114,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1327,7 +1330,9 @@
       <c r="D11" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="N11" s="3"/>
     </row>
@@ -1390,7 +1395,9 @@
       <c r="D15" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:14">
@@ -1421,7 +1428,9 @@
       <c r="D17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="2"/>
+      <c r="G17" s="2" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18">

--- a/listatemas.xlsx
+++ b/listatemas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanespejo/Documents/reveal/meditaciones/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C147066F-D4FF-4246-83C6-A619A48D5101}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA57615A-A667-A14A-871C-EC26486E608A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="67">
   <si>
     <t>Fecha</t>
   </si>
@@ -1114,7 +1114,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1379,6 +1379,9 @@
       </c>
       <c r="D14" t="s">
         <v>18</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="H14" s="2"/>
     </row>

--- a/listatemas.xlsx
+++ b/listatemas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanespejo/Documents/reveal/meditaciones/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA57615A-A667-A14A-871C-EC26486E608A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA295050-0B95-1345-AC93-58D9D2D7C6C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="68">
   <si>
     <t>Fecha</t>
   </si>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t>JCES</t>
+  </si>
+  <si>
+    <t>Williams Cap 8</t>
   </si>
 </sst>
 </file>
@@ -1114,7 +1117,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1414,7 +1417,7 @@
         <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="G16" s="2"/>
     </row>

--- a/listatemas.xlsx
+++ b/listatemas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanespejo/Documents/reveal/meditaciones/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA295050-0B95-1345-AC93-58D9D2D7C6C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E18B484-9DB5-CD4B-841F-427FA28DC111}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="68">
   <si>
     <t>Fecha</t>
   </si>
@@ -96,9 +96,6 @@
     <t>Cuerpo y mente</t>
   </si>
   <si>
-    <t>Entrega ensayos</t>
-  </si>
-  <si>
     <t>Por definir</t>
   </si>
   <si>
@@ -235,6 +232,9 @@
   </si>
   <si>
     <t>Williams Cap 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SESIÓN PENDIENTE </t>
   </si>
 </sst>
 </file>
@@ -1117,7 +1117,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1133,7 +1133,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1159,10 +1159,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1176,13 +1176,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -1193,16 +1193,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H4" s="2"/>
       <c r="N4" s="3"/>
@@ -1212,7 +1212,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -1221,7 +1221,7 @@
         <v>8</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H5" s="2"/>
       <c r="N5" s="4"/>
@@ -1231,16 +1231,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H6" s="2"/>
       <c r="N6" s="3"/>
@@ -1250,7 +1250,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -1259,7 +1259,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N7" s="3"/>
     </row>
@@ -1268,16 +1268,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H8" s="2"/>
       <c r="N8" s="3"/>
@@ -1287,16 +1287,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H9" s="2"/>
       <c r="N9" s="3"/>
@@ -1306,16 +1306,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H10" s="2"/>
       <c r="N10" s="4"/>
@@ -1325,16 +1319,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H11" s="2"/>
       <c r="N11" s="3"/>
@@ -1344,16 +1338,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="H12" s="2"/>
     </row>
@@ -1362,10 +1356,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1375,16 +1369,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H14" s="2"/>
     </row>
@@ -1393,16 +1387,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H15" s="2"/>
     </row>
@@ -1411,48 +1405,48 @@
         <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
         <v>66</v>
       </c>
+      <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" t="s">
-        <v>5</v>
+        <v>56</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1460,10 +1454,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>5</v>
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
@@ -1477,15 +1471,15 @@
         <v>18</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" t="s">
         <v>5</v>
       </c>
       <c r="H20" s="2"/>
@@ -1520,7 +1514,7 @@
         <v>43851</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1531,7 +1525,7 @@
         <v>43858</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1542,7 +1536,7 @@
         <v>43865</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1553,7 +1547,7 @@
         <v>43872</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1564,7 +1558,7 @@
         <v>43879</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1575,7 +1569,7 @@
         <v>43886</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1586,7 +1580,7 @@
         <v>43893</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1597,7 +1591,7 @@
         <v>43900</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1608,7 +1602,7 @@
         <v>43907</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1619,7 +1613,7 @@
         <v>43914</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1630,7 +1624,7 @@
         <v>43921</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1641,7 +1635,7 @@
         <v>43928</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1652,7 +1646,7 @@
         <v>43935</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1663,7 +1657,7 @@
         <v>43942</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1674,7 +1668,7 @@
         <v>43949</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1685,7 +1679,7 @@
         <v>43956</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1696,7 +1690,7 @@
         <v>43963</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1707,7 +1701,7 @@
         <v>43970</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1718,7 +1712,7 @@
         <v>43977</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
